--- a/Design Pattern Start.xlsx
+++ b/Design Pattern Start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Desktop\GoF blog\ch01 Start\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\GoF_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48B9887-D352-4658-8042-473016C0D118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAED4AB-1658-4F48-92D9-2567CC79012C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设计原则" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>创建型模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,7 +248,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -259,7 +259,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,7 +277,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -288,7 +288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,7 +306,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -317,7 +317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,7 +335,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -346,7 +346,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -375,7 +375,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,7 +393,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -404,7 +404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -422,7 +422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -433,7 +433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -496,7 +496,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -507,16 +507,12 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>，是一类最常见的设计模式，在软件开发中应用非常广泛。创建型模式描述如何将对象的创建和使用分离，让用户在使用对象时无需关心对象的创建细节，从而降低系统的耦合度，让设计方案更易于修改和扩展。每一个创建型模式都通过采用不同的解决方案来回答3个问题：What-创建什么，Who-由谁创建， When-何时创建</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述类或对象如何交互和怎样分配职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -534,11 +530,6 @@
   <si>
     <t>非GoF23模式之一，
 是其他工厂模式的基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理类或对象的组合
-结构型模式关注如何将现有类或对象组织在一起形成更加强大的结构。不同不结构型模式从不同的角度组合类或对象。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,7 +652,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -672,7 +663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -684,7 +675,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -695,7 +686,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -707,7 +698,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -718,7 +709,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -730,7 +721,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -751,7 +742,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -762,7 +753,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -773,7 +764,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -784,7 +775,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -803,7 +794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -814,7 +805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -830,7 +821,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -841,7 +832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -851,7 +842,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -862,7 +853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -881,7 +872,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -892,7 +883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -904,7 +895,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -915,7 +906,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -934,7 +925,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -945,7 +936,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -957,7 +948,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -968,7 +959,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -978,7 +969,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1028,22 +1019,125 @@
 智能引用代理(Smart Reference Proxy)：当一个对象被引用时，提供一些额外的操作，例如将对象被调用的次数记录下来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>处理类或对象的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+结构型模式关注如何将现有类或对象组织在一起形成更加强大的结构。不同不结构型模式从不同的角度组合类或对象。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>描述类或对象如何</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交互</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和怎样</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分配职责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+关注系统中类或对象之间的交互，研究系统在运行时对象之间的相互通信与协作，进一步明确对象的职责。
+类行为型模式：使用继承关系在几个类之间分配行为，主要通过多态等方式来分配父类和子类的职责；
+对象行为型模式：使用对象的关联关系来分配行为，主要通过对象关联等方式来分配两个或多个类的职责</t>
+    </r>
+  </si>
+  <si>
+    <t>职责链模式
+(Chain of Responsibility)</t>
+  </si>
+  <si>
+    <t>避免将一个请求的发送者与接收者耦合在一起，让多个对象都有机会处理请求。将接收请求的对象连接成一条链，并且沿着这条链传递请求，直到有一个对象能够处理它为止
+Avoid coupling the sender of a request to its receiver by giving more than one object a chance to handle the request. Chain the receiving objects and pass the request along the chain until an object handles it.</t>
+  </si>
+  <si>
+    <t>命令模式
+(Command)</t>
+  </si>
+  <si>
+    <t>将一个请求封装为一个对象，从而让你可以用不同的请求对客户进行参数化，对请求排队或者记录请求日志，以及支持可撤销的操作
+Encapsulate a request as an object, thereby letting you parameterize clients with different requests, queue or log requests, and support undoable operations.</t>
+  </si>
+  <si>
+    <t>又叫责任链模式
+对象行为型模式</t>
+  </si>
+  <si>
+    <t>又叫动作模式(Action)或事务模式(Transaction)
+对象行为型模式
+实现命令队列，记录请求日志，撤销操作
+宏命令(Macro Command)又称为组合命令(Composite Command)，是组合模式和命令模联用的产物</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1052,7 +1146,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1060,7 +1154,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1069,13 +1163,21 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1118,6 +1220,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1427,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1496,9 +1604,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1532,6 +1637,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1568,9 +1685,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1854,13 +1972,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="63.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
@@ -1871,7 +1989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -1882,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="45">
       <c r="A3" s="22" t="s">
         <v>41</v>
       </c>
@@ -1893,7 +2011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="45">
       <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
@@ -1904,7 +2022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="75">
       <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
@@ -1915,7 +2033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="60">
       <c r="A6" s="22" t="s">
         <v>44</v>
       </c>
@@ -1926,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="45">
       <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
@@ -1937,7 +2055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="60.75" thickBot="1">
       <c r="A8" s="24" t="s">
         <v>46</v>
       </c>
@@ -1959,33 +2077,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="73.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="73.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="53"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1996,8 +2114,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2010,16 +2128,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="47"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2032,8 +2150,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="47"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2044,8 +2162,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="47"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2056,8 +2174,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="47"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2068,8 +2186,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="47"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -2078,8 +2196,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="47"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -2088,8 +2206,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="47"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -2098,24 +2216,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="47"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="48"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:6" ht="45">
       <c r="E15" s="8" t="s">
         <v>61</v>
       </c>
@@ -2123,7 +2241,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="60">
       <c r="E16" s="10" t="s">
         <v>62</v>
       </c>
@@ -2131,7 +2249,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:7" ht="75">
       <c r="E17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2140,36 +2258,36 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="5:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:7" ht="45">
       <c r="E18" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="105">
       <c r="E19" s="10" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" ht="60">
+      <c r="E20" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="5:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" ht="75.75" thickBot="1">
+      <c r="E21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="F21" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2187,23 +2305,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76C8911-8254-4ED9-A36C-74122DF5E80A}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="73.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="66.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="66.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="22.15" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
@@ -2220,12 +2338,12 @@
         <v>39</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>87</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="54" t="s">
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>58</v>
@@ -2239,17 +2357,17 @@
       <c r="E2" s="27">
         <v>3</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="F2" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60">
+      <c r="A3" s="55"/>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -2257,17 +2375,17 @@
       <c r="E3" s="27">
         <v>5</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="F3" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60">
+      <c r="A4" s="55"/>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="5">
         <v>4</v>
@@ -2275,17 +2393,17 @@
       <c r="E4" s="27">
         <v>5</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="F4" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60">
+      <c r="A5" s="55"/>
       <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="5">
         <v>4</v>
@@ -2293,17 +2411,17 @@
       <c r="E5" s="27">
         <v>2</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="F5" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="55"/>
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -2311,159 +2429,192 @@
       <c r="E6" s="27">
         <v>3</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="33" t="s">
+      <c r="F6" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75">
+      <c r="A7" s="55"/>
+      <c r="B7" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34">
+        <v>4</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="120">
+      <c r="A8" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="36">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36">
+        <v>4</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="34">
+    </row>
+    <row r="9" spans="1:6" ht="75">
+      <c r="A9" s="57"/>
+      <c r="B9" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="36">
+        <v>3</v>
+      </c>
+      <c r="E9" s="36">
+        <v>3</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="90">
+      <c r="A10" s="57"/>
+      <c r="B10" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="36">
+        <v>3</v>
+      </c>
+      <c r="E10" s="36">
+        <v>4</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60">
+      <c r="A11" s="57"/>
+      <c r="B11" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="36">
+        <v>3</v>
+      </c>
+      <c r="E11" s="36">
+        <v>3</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60">
+      <c r="A12" s="57"/>
+      <c r="B12" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="36">
         <v>1</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E12" s="36">
+        <v>5</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="150">
+      <c r="A13" s="57"/>
+      <c r="B13" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="36">
         <v>4</v>
       </c>
-      <c r="F7" s="42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="37">
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="315">
+      <c r="A14" s="58"/>
+      <c r="B14" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="36">
+        <v>3</v>
+      </c>
+      <c r="E14" s="36">
+        <v>4</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="90">
+      <c r="A15" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="45">
+        <v>3</v>
+      </c>
+      <c r="E15" s="45">
         <v>2</v>
       </c>
-      <c r="E8" s="37">
+      <c r="F15" s="46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="75">
+      <c r="A16" s="59"/>
+      <c r="B16" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="45">
+        <v>3</v>
+      </c>
+      <c r="E16" s="45">
         <v>4</v>
       </c>
-      <c r="F8" s="41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="37">
-        <v>3</v>
-      </c>
-      <c r="E9" s="37">
-        <v>3</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="37">
-        <v>3</v>
-      </c>
-      <c r="E10" s="37">
-        <v>4</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="37">
-        <v>3</v>
-      </c>
-      <c r="E11" s="37">
-        <v>3</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="37">
-        <v>1</v>
-      </c>
-      <c r="E12" s="37">
-        <v>5</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="37">
-        <v>4</v>
-      </c>
-      <c r="E13" s="37">
-        <v>1</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="220.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="37">
-        <v>3</v>
-      </c>
-      <c r="E14" s="37">
-        <v>4</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>86</v>
+      <c r="F16" s="46" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Design Pattern Start.xlsx
+++ b/Design Pattern Start.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\GoF_CS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\dotnet\GoF_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAED4AB-1658-4F48-92D9-2567CC79012C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0305B51C-7E3F-43A8-B87F-C228C9355975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设计原则" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>创建型模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,7 +248,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -259,7 +259,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,7 +277,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -288,7 +288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,7 +306,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -317,7 +317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,7 +335,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -346,7 +346,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -375,7 +375,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,7 +393,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -404,7 +404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -422,7 +422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -433,7 +433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -496,7 +496,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -507,7 +507,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -652,7 +652,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -663,7 +663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -675,7 +675,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -686,7 +686,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,7 +698,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -709,7 +709,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -721,7 +721,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -742,7 +742,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -753,7 +753,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -764,7 +764,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -775,7 +775,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -794,7 +794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -805,7 +805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -821,7 +821,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -832,7 +832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -842,7 +842,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -853,7 +853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -872,7 +872,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -883,7 +883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -895,7 +895,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -906,7 +906,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -925,7 +925,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -936,7 +936,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -948,7 +948,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -959,7 +959,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -969,7 +969,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1028,7 +1028,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1038,7 +1038,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1055,7 +1055,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1065,7 +1065,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1076,7 +1076,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1086,7 +1086,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1117,27 +1117,78 @@
 对象行为型模式</t>
   </si>
   <si>
+    <t>解释器模式
+(Interpreter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器
+(Iterator)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中介者模式
+(Mediator)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录模式
+(Memento)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察者模式
+(Observer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态模式
+(State)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略模式
+(Strategy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板方法模式
+(Template Method)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问者模式
+(Visitor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>又叫动作模式(Action)或事务模式(Transaction)
 对象行为型模式
-实现命令队列，记录请求日志，撤销操作
+实现命令队列，记录请求日志，撤销/反撤销操作
 宏命令(Macro Command)又称为组合命令(Composite Command)，是组合模式和命令模联用的产物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一种语言，定义它的文法的一种表示，并定义一个解释器，这个解释器使用该表示来解释语言中的句子。
+Given a language, define a representationfor its grammar along with an interpreter that uses the representation tp interpret sentences in the language.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1146,7 +1197,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1154,7 +1205,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1163,7 +1214,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1172,7 +1223,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1535,7 +1586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1600,10 +1651,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1638,9 +1685,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,6 +1693,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1685,10 +1730,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1972,13 +2030,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
@@ -1989,7 +2047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60">
+    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -2000,7 +2058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45">
+    <row r="3" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>41</v>
       </c>
@@ -2011,7 +2069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45">
+    <row r="4" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
@@ -2022,7 +2080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75">
+    <row r="5" spans="1:3" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
@@ -2033,7 +2091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60">
+    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>44</v>
       </c>
@@ -2044,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45">
+    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
@@ -2055,7 +2113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60.75" thickBot="1">
+    <row r="8" spans="1:3" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>46</v>
       </c>
@@ -2081,29 +2139,29 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="73.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="73.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="53"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2114,8 +2172,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2128,16 +2186,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2150,8 +2208,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="47"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2162,8 +2220,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2174,8 +2232,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2186,8 +2244,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -2196,8 +2254,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -2206,8 +2264,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -2216,24 +2274,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="48"/>
+    <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="E15" s="8" t="s">
         <v>61</v>
       </c>
@@ -2241,7 +2299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="60">
+    <row r="16" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="E16" s="10" t="s">
         <v>62</v>
       </c>
@@ -2249,7 +2307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="75">
+    <row r="17" spans="5:7" ht="69" x14ac:dyDescent="0.25">
       <c r="E17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2258,7 +2316,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="5:7" ht="45">
+    <row r="18" spans="5:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="E18" s="10" t="s">
         <v>64</v>
       </c>
@@ -2266,7 +2324,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="5:7" ht="105">
+    <row r="19" spans="5:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="E19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2274,7 +2332,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="5:7" ht="60">
+    <row r="20" spans="5:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="E20" s="10" t="s">
         <v>67</v>
       </c>
@@ -2282,7 +2340,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="5:7" ht="75.75" thickBot="1">
+    <row r="21" spans="5:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="13" t="s">
         <v>68</v>
       </c>
@@ -2305,44 +2363,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76C8911-8254-4ED9-A36C-74122DF5E80A}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="73.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="96.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.15" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" s="59" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2357,12 +2416,12 @@
       <c r="E2" s="27">
         <v>3</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60">
-      <c r="A3" s="55"/>
+    <row r="3" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
@@ -2375,12 +2434,12 @@
       <c r="E3" s="27">
         <v>5</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60">
-      <c r="A4" s="55"/>
+    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
@@ -2393,12 +2452,12 @@
       <c r="E4" s="27">
         <v>5</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60">
-      <c r="A5" s="55"/>
+    <row r="5" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
       <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
@@ -2411,12 +2470,12 @@
       <c r="E5" s="27">
         <v>2</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60">
-      <c r="A6" s="55"/>
+    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
@@ -2429,198 +2488,327 @@
       <c r="E6" s="27">
         <v>3</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75">
-      <c r="A7" s="55"/>
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="29">
         <v>1</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="30">
         <v>4</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="32">
         <v>2</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="32">
         <v>4</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="36" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75">
-      <c r="A9" s="57"/>
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="32">
         <v>3</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="32">
         <v>3</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="90">
-      <c r="A10" s="57"/>
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="32">
         <v>3</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="32">
         <v>4</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60">
-      <c r="A11" s="57"/>
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="32">
         <v>3</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="38" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60">
-      <c r="A12" s="57"/>
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="32">
         <v>1</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="32">
         <v>5</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="150">
-      <c r="A13" s="57"/>
-      <c r="B13" s="35" t="s">
+    <row r="13" spans="1:6" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="32">
         <v>4</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="32">
         <v>1</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="315">
-      <c r="A14" s="58"/>
-      <c r="B14" s="35" t="s">
+    <row r="14" spans="1:6" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="32">
         <v>3</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="32">
         <v>4</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="90">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="40">
         <v>3</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="40">
         <v>2</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="41" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="75">
-      <c r="A16" s="59"/>
-      <c r="B16" s="44" t="s">
+    <row r="16" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="40">
         <v>3</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="40">
         <v>4</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="39" t="s">
         <v>114</v>
       </c>
+      <c r="C17" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="40">
+        <v>5</v>
+      </c>
+      <c r="E17" s="40">
+        <v>1</v>
+      </c>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40">
+        <v>3</v>
+      </c>
+      <c r="E18" s="40">
+        <v>5</v>
+      </c>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="61"/>
+      <c r="B19" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40">
+        <v>3</v>
+      </c>
+      <c r="E19" s="40">
+        <v>2</v>
+      </c>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="61"/>
+      <c r="B20" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40">
+        <v>2</v>
+      </c>
+      <c r="E20" s="40">
+        <v>2</v>
+      </c>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="61"/>
+      <c r="B21" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40">
+        <v>3</v>
+      </c>
+      <c r="E21" s="40">
+        <v>5</v>
+      </c>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="61"/>
+      <c r="B22" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40">
+        <v>3</v>
+      </c>
+      <c r="E22" s="40">
+        <v>3</v>
+      </c>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40">
+        <v>1</v>
+      </c>
+      <c r="E23" s="40">
+        <v>4</v>
+      </c>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40">
+        <v>2</v>
+      </c>
+      <c r="E24" s="40">
+        <v>3</v>
+      </c>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="62"/>
+      <c r="B25" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40">
+        <v>4</v>
+      </c>
+      <c r="E25" s="40">
+        <v>1</v>
+      </c>
+      <c r="F25" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design Pattern Start.xlsx
+++ b/Design Pattern Start.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\dotnet\GoF_CS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\GoF_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0305B51C-7E3F-43A8-B87F-C228C9355975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8680A490-A2DF-41DD-AE60-7B4F8539BEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设计原则" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>创建型模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,7 +248,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -259,7 +259,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,7 +277,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -288,7 +288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,7 +306,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -317,7 +317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,7 +335,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -346,7 +346,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -375,7 +375,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,7 +393,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -404,7 +404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -422,7 +422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -433,7 +433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -496,7 +496,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -507,7 +507,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -652,7 +652,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -663,7 +663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -675,7 +675,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -686,7 +686,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,7 +698,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -709,7 +709,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -721,7 +721,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -742,7 +742,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -753,7 +753,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -764,7 +764,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -775,7 +775,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -794,7 +794,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -805,7 +805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -821,7 +821,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -832,7 +832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -842,7 +842,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -853,7 +853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -872,7 +872,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -883,7 +883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -895,7 +895,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -906,7 +906,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -925,7 +925,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -936,7 +936,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -948,7 +948,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -959,7 +959,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -969,7 +969,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1028,7 +1028,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1038,7 +1038,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1055,7 +1055,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1065,7 +1065,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1076,7 +1076,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1086,7 +1086,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1172,23 +1172,28 @@
     <t>给定一种语言，定义它的文法的一种表示，并定义一个解释器，这个解释器使用该表示来解释语言中的句子。
 Given a language, define a representationfor its grammar along with an interpreter that uses the representation tp interpret sentences in the language.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难以维护复杂的语法，可以考虑用语法分析程序等方式代替解释器模式
+执行效率较低，因为使用了大量的递归和循环，
+调试比较麻烦</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1197,7 +1202,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1205,7 +1210,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1214,7 +1219,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1223,7 +1228,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1694,47 +1699,47 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1746,7 +1751,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2030,13 +2035,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
@@ -2047,7 +2052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -2058,7 +2063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="45">
       <c r="A3" s="22" t="s">
         <v>41</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="45">
       <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
@@ -2080,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="75">
       <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="60">
       <c r="A6" s="22" t="s">
         <v>44</v>
       </c>
@@ -2102,7 +2107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="45">
       <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
@@ -2113,7 +2118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="60.75" thickBot="1">
       <c r="A8" s="24" t="s">
         <v>46</v>
       </c>
@@ -2139,29 +2144,29 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="73.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="73.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="54"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2172,8 +2177,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="48" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2186,16 +2191,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="48"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="48" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2208,8 +2213,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="48"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2220,8 +2225,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="48"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2232,8 +2237,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="48"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2244,8 +2249,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="48"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -2254,8 +2259,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="48"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -2264,8 +2269,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="48"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -2274,24 +2279,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="48"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="49"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:6" ht="45">
       <c r="E15" s="8" t="s">
         <v>61</v>
       </c>
@@ -2299,7 +2304,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="60">
       <c r="E16" s="10" t="s">
         <v>62</v>
       </c>
@@ -2307,7 +2312,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:7" ht="75">
       <c r="E17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2316,7 +2321,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="5:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:7" ht="45">
       <c r="E18" s="10" t="s">
         <v>64</v>
       </c>
@@ -2324,7 +2329,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="5:7" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:7" ht="105">
       <c r="E19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2332,7 +2337,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="5:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:7" ht="60">
       <c r="E20" s="10" t="s">
         <v>67</v>
       </c>
@@ -2340,7 +2345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="5:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" ht="75.75" thickBot="1">
       <c r="E21" s="13" t="s">
         <v>68</v>
       </c>
@@ -2367,41 +2372,41 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="73.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="96.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="96.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="59" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:6" s="47" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:6" ht="28.9" customHeight="1">
+      <c r="A2" s="55" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2420,8 +2425,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+    <row r="3" spans="1:6" ht="57.6" customHeight="1">
+      <c r="A3" s="56"/>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
@@ -2438,8 +2443,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:6" ht="42" customHeight="1">
+      <c r="A4" s="56"/>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
@@ -2456,8 +2461,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:6" ht="59.45" customHeight="1">
+      <c r="A5" s="56"/>
       <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
@@ -2474,8 +2479,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+    <row r="6" spans="1:6" ht="45" customHeight="1">
+      <c r="A6" s="56"/>
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
@@ -2492,8 +2497,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:6" ht="59.45" customHeight="1">
+      <c r="A7" s="56"/>
       <c r="B7" s="28" t="s">
         <v>36</v>
       </c>
@@ -2510,8 +2515,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:6" ht="89.45" customHeight="1">
+      <c r="A8" s="57" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -2530,8 +2535,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:6" ht="60">
+      <c r="A9" s="58"/>
       <c r="B9" s="31" t="s">
         <v>75</v>
       </c>
@@ -2548,8 +2553,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+    <row r="10" spans="1:6" ht="73.900000000000006" customHeight="1">
+      <c r="A10" s="58"/>
       <c r="B10" s="31" t="s">
         <v>77</v>
       </c>
@@ -2566,8 +2571,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+    <row r="11" spans="1:6" ht="59.45" customHeight="1">
+      <c r="A11" s="58"/>
       <c r="B11" s="31" t="s">
         <v>79</v>
       </c>
@@ -2584,8 +2589,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:6" ht="60" customHeight="1">
+      <c r="A12" s="58"/>
       <c r="B12" s="31" t="s">
         <v>80</v>
       </c>
@@ -2602,8 +2607,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+    <row r="13" spans="1:6" ht="101.45" customHeight="1">
+      <c r="A13" s="58"/>
       <c r="B13" s="31" t="s">
         <v>81</v>
       </c>
@@ -2620,8 +2625,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+    <row r="14" spans="1:6" ht="183.6" customHeight="1">
+      <c r="A14" s="59"/>
       <c r="B14" s="31" t="s">
         <v>82</v>
       </c>
@@ -2638,7 +2643,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="87" customHeight="1">
       <c r="A15" s="60" t="s">
         <v>84</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="60.6" customHeight="1">
       <c r="A16" s="61"/>
       <c r="B16" s="39" t="s">
         <v>111</v>
@@ -2676,7 +2681,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="58.9" customHeight="1">
       <c r="A17" s="61"/>
       <c r="B17" s="39" t="s">
         <v>114</v>
@@ -2690,9 +2695,11 @@
       <c r="E17" s="40">
         <v>1</v>
       </c>
-      <c r="F17" s="42"/>
-    </row>
-    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="F17" s="41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="61"/>
       <c r="B18" s="39" t="s">
         <v>115</v>
@@ -2706,7 +2713,7 @@
       </c>
       <c r="F18" s="42"/>
     </row>
-    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="61"/>
       <c r="B19" s="39" t="s">
         <v>116</v>
@@ -2720,7 +2727,7 @@
       </c>
       <c r="F19" s="42"/>
     </row>
-    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="61"/>
       <c r="B20" s="39" t="s">
         <v>117</v>
@@ -2734,7 +2741,7 @@
       </c>
       <c r="F20" s="42"/>
     </row>
-    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="61"/>
       <c r="B21" s="39" t="s">
         <v>118</v>
@@ -2748,7 +2755,7 @@
       </c>
       <c r="F21" s="42"/>
     </row>
-    <row r="22" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30">
       <c r="A22" s="61"/>
       <c r="B22" s="39" t="s">
         <v>119</v>
@@ -2762,7 +2769,7 @@
       </c>
       <c r="F22" s="42"/>
     </row>
-    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30">
       <c r="A23" s="61"/>
       <c r="B23" s="39" t="s">
         <v>120</v>
@@ -2776,7 +2783,7 @@
       </c>
       <c r="F23" s="42"/>
     </row>
-    <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="61"/>
       <c r="B24" s="39" t="s">
         <v>121</v>
@@ -2790,7 +2797,7 @@
       </c>
       <c r="F24" s="42"/>
     </row>
-    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30">
       <c r="A25" s="62"/>
       <c r="B25" s="39" t="s">
         <v>122</v>

--- a/Design Pattern Start.xlsx
+++ b/Design Pattern Start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\GoF_CS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\dotnet\GoF_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8680A490-A2DF-41DD-AE60-7B4F8539BEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BB5C1F-A795-4D8D-8E53-F627FD1849B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设计原则" sheetId="3" r:id="rId1"/>
@@ -248,7 +248,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -259,7 +259,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,7 +277,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -288,7 +288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,7 +306,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -317,7 +317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,7 +335,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -346,7 +346,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +364,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -375,7 +375,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,7 +393,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -404,7 +404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -422,7 +422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -433,7 +433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,21 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建型模式
-Creational  Pattern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构型模式
-Structural Pattern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为型模式
-Behavioral Pattern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>创建型模式</t>
     </r>
@@ -496,7 +481,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -507,7 +492,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -652,7 +637,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -663,7 +648,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -675,7 +660,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -686,7 +671,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,7 +683,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -709,7 +694,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -721,7 +706,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -742,7 +727,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -753,7 +738,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -764,7 +749,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -775,7 +760,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -794,7 +779,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -805,7 +790,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -821,7 +806,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -832,7 +817,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -842,7 +827,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -853,7 +838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -872,7 +857,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -883,7 +868,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -895,7 +880,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -906,7 +891,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -925,7 +910,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -936,7 +921,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -948,7 +933,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -959,7 +944,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -969,7 +954,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1028,7 +1013,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1038,7 +1023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1055,7 +1040,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1065,7 +1050,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1076,7 +1061,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1086,7 +1071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1177,23 +1162,86 @@
     <t>难以维护复杂的语法，可以考虑用语法分析程序等方式代替解释器模式
 执行效率较低，因为使用了大量的递归和循环，
 调试比较麻烦</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">创建型模式
+Creational  Pattern
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（对象创建）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">结构型模式
+Structural Pattern
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（对象和对象间的关系）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">行为型模式
+Behavioral Pattern
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（对象被使用）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1202,7 +1250,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1210,7 +1258,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1219,7 +1267,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1228,8 +1276,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1751,7 +1809,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2035,13 +2093,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
@@ -2052,7 +2110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60">
+    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -2063,7 +2121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45">
+    <row r="3" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>41</v>
       </c>
@@ -2074,7 +2132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45">
+    <row r="4" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
@@ -2085,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75">
+    <row r="5" spans="1:3" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>43</v>
       </c>
@@ -2096,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60">
+    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>44</v>
       </c>
@@ -2107,7 +2165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45">
+    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
@@ -2118,7 +2176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60.75" thickBot="1">
+    <row r="8" spans="1:3" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>46</v>
       </c>
@@ -2140,22 +2198,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="73.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="73.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>56</v>
       </c>
@@ -2165,7 +2223,7 @@
       <c r="C1" s="51"/>
       <c r="D1" s="52"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -2177,7 +2235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>3</v>
       </c>
@@ -2191,7 +2249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2199,7 +2257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -2225,7 +2283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -2237,7 +2295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -2249,7 +2307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -2259,7 +2317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -2269,7 +2327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -2279,7 +2337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2287,7 +2345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -2295,8 +2353,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="E15" s="8" t="s">
         <v>61</v>
       </c>
@@ -2304,7 +2362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="60">
+    <row r="16" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="E16" s="10" t="s">
         <v>62</v>
       </c>
@@ -2312,45 +2370,45 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="75">
+    <row r="17" spans="5:7" ht="69" x14ac:dyDescent="0.25">
       <c r="E17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="5:7" ht="45">
+    <row r="18" spans="5:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="E18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="E19" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="E20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" ht="105">
-      <c r="E19" s="10" t="s">
+      <c r="F20" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" ht="60">
-      <c r="E20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" ht="75.75" thickBot="1">
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2370,22 +2428,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76C8911-8254-4ED9-A36C-74122DF5E80A}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="96.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="73.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="96.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="47" customFormat="1" ht="22.15" customHeight="1">
+    <row r="1" spans="1:6" s="47" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>29</v>
       </c>
@@ -2402,12 +2460,12 @@
         <v>39</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.9" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>58</v>
@@ -2422,16 +2480,16 @@
         <v>3</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -2440,16 +2498,16 @@
         <v>5</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5">
         <v>4</v>
@@ -2458,16 +2516,16 @@
         <v>5</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="59.45" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
       <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="5">
         <v>4</v>
@@ -2476,16 +2534,16 @@
         <v>2</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -2494,16 +2552,16 @@
         <v>3</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="59.45" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
       <c r="B7" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7" s="29">
         <v>1</v>
@@ -2512,18 +2570,18 @@
         <v>4</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="89.45" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="32">
         <v>2</v>
@@ -2532,16 +2590,16 @@
         <v>4</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
       <c r="B9" s="31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D9" s="32">
         <v>3</v>
@@ -2550,16 +2608,16 @@
         <v>3</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="73.900000000000006" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
       <c r="B10" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" s="32">
         <v>3</v>
@@ -2568,16 +2626,16 @@
         <v>4</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="59.45" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="32">
         <v>3</v>
@@ -2586,16 +2644,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="32">
         <v>1</v>
@@ -2604,16 +2662,16 @@
         <v>5</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="101.45" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D13" s="32">
         <v>4</v>
@@ -2622,16 +2680,16 @@
         <v>1</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="183.6" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
       <c r="B14" s="31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="32">
         <v>3</v>
@@ -2640,18 +2698,18 @@
         <v>4</v>
       </c>
       <c r="F14" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="87" customHeight="1">
-      <c r="A15" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>109</v>
-      </c>
       <c r="C15" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D15" s="40">
         <v>3</v>
@@ -2660,16 +2718,16 @@
         <v>2</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60.6" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
       <c r="B16" s="39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" s="40">
         <v>3</v>
@@ -2678,16 +2736,16 @@
         <v>4</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="58.9" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
       <c r="B17" s="39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D17" s="40">
         <v>5</v>
@@ -2696,13 +2754,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
       <c r="B18" s="39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="40">
@@ -2713,10 +2771,10 @@
       </c>
       <c r="F18" s="42"/>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
       <c r="B19" s="39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="40">
@@ -2727,10 +2785,10 @@
       </c>
       <c r="F19" s="42"/>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
       <c r="B20" s="39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="40">
@@ -2741,10 +2799,10 @@
       </c>
       <c r="F20" s="42"/>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="61"/>
       <c r="B21" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="40">
@@ -2755,10 +2813,10 @@
       </c>
       <c r="F21" s="42"/>
     </row>
-    <row r="22" spans="1:6" ht="30">
+    <row r="22" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="40">
@@ -2769,10 +2827,10 @@
       </c>
       <c r="F22" s="42"/>
     </row>
-    <row r="23" spans="1:6" ht="30">
+    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
       <c r="B23" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="40">
@@ -2783,10 +2841,10 @@
       </c>
       <c r="F23" s="42"/>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="40">
@@ -2797,10 +2855,10 @@
       </c>
       <c r="F24" s="42"/>
     </row>
-    <row r="25" spans="1:6" ht="30">
+    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="62"/>
       <c r="B25" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="40">

--- a/Design Pattern Start.xlsx
+++ b/Design Pattern Start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\dotnet\GoF_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BB5C1F-A795-4D8D-8E53-F627FD1849B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15637C3A-C93F-4061-8405-57F1AB380F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设计原则" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>创建型模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1224,6 +1224,16 @@
       </rPr>
       <t>（对象被使用）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供一种方法顺序访问一个聚合对象中的各个元素，且不用暴露该对象的内部表示。
+Provide a way to access the elements of an aggregate object sequentially without exposing its underlying representation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又叫游标模式(Cursor)
+将数据的遍历功能从聚合对象中分离出来，聚合对象只负责存储数据，而遍历数据由迭代器完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2198,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2428,9 +2438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76C8911-8254-4ED9-A36C-74122DF5E80A}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2757,19 +2767,23 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
       <c r="B18" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="39" t="s">
+        <v>126</v>
+      </c>
       <c r="D18" s="40">
         <v>3</v>
       </c>
       <c r="E18" s="40">
         <v>5</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="39" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>

--- a/Design Pattern Start.xlsx
+++ b/Design Pattern Start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\dotnet\GoF_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15637C3A-C93F-4061-8405-57F1AB380F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ED7CF3-F7A4-4F6E-9EA1-BF36628996F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
   <si>
     <t>创建型模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -625,100 +625,6 @@
   </si>
   <si>
     <t>hook method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">又叫包装模式(Wrapper)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类适配器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">：适配器与适配者是继承关系
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对象适配器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">：适配器与适配者是关联关系（根据合成复用原则，对象适配器的使用频率高于类适配器）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单接口适配器（缺省适配器）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">：添加一个抽象类，实现adaptee接口，并为接口每个方法提供默认实现（空方法），那么抽象类的子方法可选择性重写以实现需求。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>双向适配器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又叫柄体模式(Handle and Body)或接口模式(Interface)
-解耦出来的抽象类：与解耦出的接口有关联关系，包含protected的接口定义，并包含抽象业务方法或具体业务方法
-解耦出来的接口：仅需要声明需要的操作，其子类来具体不同的实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -799,11 +705,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>又叫</t>
-    </r>
-    <r>
-      <rPr>
+    <t>动态地给一个对象增加一些额外的职责。就扩展功能而言，装饰模式提供了一种比使用子类更加灵活的替代方案
+Attach additional responsibilities to an object dynamically. Decorators provide a flexible alternative to subclassing for extending functionality.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为子系统中的一组接口提供一个统一的入口。外观模式定义了一个高层接口，这个接口使得这一子系统更加容易使用
+Provide a unified interface to a set of interfaces in a subsystem. Facade defines a higher-level interface that make the subsystem easier to use.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用共享技术有效地支持大量细粒度对象的复用
+Using sharing to support large numbers of fine-grained objects efficiently</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给某一个对象提供一个代理或占位符，并由代理对象来控制对原对象的访问
+Provide a surrogate or placeholder for another object to control access to it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>处理类或对象的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+结构型模式关注如何将现有类或对象组织在一起形成更加强大的结构。不同不结构型模式从不同的角度组合类或对象。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>描述类或对象如何</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交互</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和怎样</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分配职责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+关注系统中类或对象之间的交互，研究系统在运行时对象之间的相互通信与协作，进一步明确对象的职责。
+类行为型模式：使用继承关系在几个类之间分配行为，主要通过多态等方式来分配父类和子类的职责；
+对象行为型模式：使用对象的关联关系来分配行为，主要通过对象关联等方式来分配两个或多个类的职责</t>
+    </r>
+  </si>
+  <si>
+    <t>职责链模式
+(Chain of Responsibility)</t>
+  </si>
+  <si>
+    <t>避免将一个请求的发送者与接收者耦合在一起，让多个对象都有机会处理请求。将接收请求的对象连接成一条链，并且沿着这条链传递请求，直到有一个对象能够处理它为止
+Avoid coupling the sender of a request to its receiver by giving more than one object a chance to handle the request. Chain the receiving objects and pass the request along the chain until an object handles it.</t>
+  </si>
+  <si>
+    <t>命令模式
+(Command)</t>
+  </si>
+  <si>
+    <t>将一个请求封装为一个对象，从而让你可以用不同的请求对客户进行参数化，对请求排队或者记录请求日志，以及支持可撤销的操作
+Encapsulate a request as an object, thereby letting you parameterize clients with different requests, queue or log requests, and support undoable operations.</t>
+  </si>
+  <si>
+    <t>解释器模式
+(Interpreter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器
+(Iterator)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中介者模式
+(Mediator)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录模式
+(Memento)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察者模式
+(Observer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态模式
+(State)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略模式
+(Strategy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板方法模式
+(Template Method)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问者模式
+(Visitor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一种语言，定义它的文法的一种表示，并定义一个解释器，这个解释器使用该表示来解释语言中的句子。
+Given a language, define a representationfor its grammar along with an interpreter that uses the representation tp interpret sentences in the language.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">创建型模式
+Creational  Pattern
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -811,20 +884,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>虚拟构造器模式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Virtual Constructor)或</t>
-    </r>
-    <r>
-      <rPr>
+      <t>（对象创建）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">结构型模式
+Structural Pattern
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -832,29 +905,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>多态工厂模式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Polymorphic Factory)
-工厂方法的重载</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">又叫部分整体模式(Part-Whole)
+      <t>（对象和对象间的关系）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">行为型模式
+Behavioral Pattern
 </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -862,138 +926,54 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>透明组合模式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">：抽象类声明所有子类具有的方法，具体逻辑由子类实现
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>安全组合模式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：抽象类仅声明公用的方法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态地给一个对象增加一些额外的职责。就扩展功能而言，装饰模式提供了一种比使用子类更加灵活的替代方案
-Attach additional responsibilities to an object dynamically. Decorators provide a flexible alternative to subclassing for extending functionality.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>透明装饰模式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Transparent)- 扩展的方法为private
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>半透明装饰模式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Semi-transparent)- 扩展的方法为public，并且消费者要声明具体装饰类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，然后可以调用额外的装饰类</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为子系统中的一组接口提供一个统一的入口。外观模式定义了一个高层接口，这个接口使得这一子系统更加容易使用
-Provide a unified interface to a set of interfaces in a subsystem. Facade defines a higher-level interface that make the subsystem easier to use.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又叫门面模式
-迪米特法则
-抽象外观类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又叫轻量级模式
-共享的关键：区分了内部状态(intrinsic state)和外部状态(extrinsic state)
-单纯享元模式：所有的具体享元类都是可以共享的，不存在非共享具体享元类。它们内部状态相同，可以共享，而外部状态一般不同，由客户端提供和维护。
-复合享元模式：复合享元类本身不能共享，但是其中包含的每个单纯享元类可以共享。它们具有相同的外部状态，而内部状态一般不同。
-其中用到了工厂模式和单例模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运用共享技术有效地支持大量细粒度对象的复用
-Using sharing to support large numbers of fine-grained objects efficiently</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给某一个对象提供一个代理或占位符，并由代理对象来控制对原对象的访问
-Provide a surrogate or placeholder for another object to control access to it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据目的和实现方式不同，分类：
+      <t>（对象被使用）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供一种方法顺序访问一个聚合对象中的各个元素，且不用暴露该对象的内部表示。
+Provide a way to access the elements of an aggregate object sequentially without exposing its underlying representation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一个对象来封装一系列对象的交互。中介者模式使各对象间不需要显示地相互引用，从而使其耦合松散，而且让你可以独立地改变它们之间的交互
+Define an object that encapsulates how a set of objects interact. Mediator promotes loose coupling by keeping objects from referring to each other explicitly, and it lets you vary their interaction independently</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪米特法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单一职责原则
+又叫游标模式(Cursor)
+将数据的遍历功能从聚合对象中分离出来，聚合对象只负责存储数据，而遍历数据由迭代器完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开闭原则
+难以维护复杂的语法，可以考虑用语法分析程序等方式代替解释器模式
+执行效率较低，因为使用了大量的递归和循环，
+调试比较麻烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开闭原则
+又叫动作模式(Action)或事务模式(Transaction)
+对象行为型模式
+实现命令队列，记录请求日志，撤销/反撤销操作
+宏命令(Macro Command)又称为组合命令(Composite Command)，是组合模式和命令模联用的产物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开闭原则
+又叫责任链模式
+对象行为型模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开闭原则
+根据目的和实现方式不同，分类：
 远程代理(Remote Proxy)/大使(Ambassador)：为一个位于不同地址空间的对象提供一个本地的代理对象，这个不同的地址空间可以在同一台主机中，也可以在另一台主机中。
         它封装了底层网络通信和对远程对象的调用，其实现较为复杂。
 虚拟代理(Virtual Proxy)/：如果需要创建一个资源消耗较大的对象(网络IO或系统资源)，先创建一个小号较小的代理对象来表示，真实对象只在需要的时候才会被真正创建。
@@ -1005,174 +985,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>处理类或对象的</t>
-    </r>
+    <t>开闭原则
+又叫轻量级模式
+共享的关键：区分了内部状态(intrinsic state)和外部状态(extrinsic state)
+单纯享元模式：所有的具体享元类都是可以共享的，不存在非共享具体享元类。它们内部状态相同，可以共享，而外部状态一般不同，由客户端提供和维护。
+复合享元模式：复合享元类本身不能共享，但是其中包含的每个单纯享元类可以共享。它们具有相同的外部状态，而内部状态一般不同。
+其中用到了工厂模式和单例模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪米特法则
+又叫门面模式
+抽象外观类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-结构型模式关注如何将现有类或对象组织在一起形成更加强大的结构。不同不结构型模式从不同的角度组合类或对象。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>描述类或对象如何</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>交互</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>和怎样</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分配职责</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-关注系统中类或对象之间的交互，研究系统在运行时对象之间的相互通信与协作，进一步明确对象的职责。
-类行为型模式：使用继承关系在几个类之间分配行为，主要通过多态等方式来分配父类和子类的职责；
-对象行为型模式：使用对象的关联关系来分配行为，主要通过对象关联等方式来分配两个或多个类的职责</t>
-    </r>
-  </si>
-  <si>
-    <t>职责链模式
-(Chain of Responsibility)</t>
-  </si>
-  <si>
-    <t>避免将一个请求的发送者与接收者耦合在一起，让多个对象都有机会处理请求。将接收请求的对象连接成一条链，并且沿着这条链传递请求，直到有一个对象能够处理它为止
-Avoid coupling the sender of a request to its receiver by giving more than one object a chance to handle the request. Chain the receiving objects and pass the request along the chain until an object handles it.</t>
-  </si>
-  <si>
-    <t>命令模式
-(Command)</t>
-  </si>
-  <si>
-    <t>将一个请求封装为一个对象，从而让你可以用不同的请求对客户进行参数化，对请求排队或者记录请求日志，以及支持可撤销的操作
-Encapsulate a request as an object, thereby letting you parameterize clients with different requests, queue or log requests, and support undoable operations.</t>
-  </si>
-  <si>
-    <t>又叫责任链模式
-对象行为型模式</t>
-  </si>
-  <si>
-    <t>解释器模式
-(Interpreter)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迭代器
-(Iterator)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中介者模式
-(Mediator)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备忘录模式
-(Memento)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察者模式
-(Observer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态模式
-(State)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略模式
-(Strategy)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板方法模式
-(Template Method)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问者模式
-(Visitor)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又叫动作模式(Action)或事务模式(Transaction)
-对象行为型模式
-实现命令队列，记录请求日志，撤销/反撤销操作
-宏命令(Macro Command)又称为组合命令(Composite Command)，是组合模式和命令模联用的产物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给定一种语言，定义它的文法的一种表示，并定义一个解释器，这个解释器使用该表示来解释语言中的句子。
-Given a language, define a representationfor its grammar along with an interpreter that uses the representation tp interpret sentences in the language.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难以维护复杂的语法，可以考虑用语法分析程序等方式代替解释器模式
-执行效率较低，因为使用了大量的递归和循环，
-调试比较麻烦</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">创建型模式
-Creational  Pattern
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -1180,20 +1010,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（对象创建）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">结构型模式
-Structural Pattern
+      <t>开闭原则
+透明装饰模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Transparent)- 扩展的方法为private
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -1201,20 +1034,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（对象和对象间的关系）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">行为型模式
-Behavioral Pattern
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t>半透明装饰模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Semi-transparent)- 扩展的方法为public，并且消费者要声明具体装饰类</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -1222,18 +1055,207 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（对象被使用）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供一种方法顺序访问一个聚合对象中的各个元素，且不用暴露该对象的内部表示。
-Provide a way to access the elements of an aggregate object sequentially without exposing its underlying representation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又叫游标模式(Cursor)
-将数据的遍历功能从聚合对象中分离出来，聚合对象只负责存储数据，而遍历数据由迭代器完成。</t>
+      <t>，然后可以调用额外的装饰类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">开闭原则
+又叫部分整体模式(Part-Whole)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>透明组合模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：抽象类声明所有子类具有的方法，具体逻辑由子类实现
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安全组合模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：抽象类仅声明公用的方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开闭原则
+又叫柄体模式(Handle and Body)或接口模式(Interface)
+解耦出来的抽象类：与解耦出的接口有关联关系，包含protected的接口定义，并包含抽象业务方法或具体业务方法
+解耦出来的接口：仅需要声明需要的操作，其子类来具体不同的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">开闭原则，里氏代换原则
+又叫包装模式(Wrapper)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类适配器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：适配器与适配者是继承关系
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象适配器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：适配器与适配者是关联关系（根据合成复用原则，对象适配器的使用频率高于类适配器）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单接口适配器（缺省适配器）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：添加一个抽象类，实现adaptee接口，并为接口每个方法提供默认实现（空方法），那么抽象类的子方法可选择性重写以实现需求。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>双向适配器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>开闭原则
+又叫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虚拟构造器模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Virtual Constructor)或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多态工厂模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Polymorphic Factory)
+工厂方法的重载</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1659,7 +1681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1766,7 +1788,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2224,17 +2245,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2267,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2260,7 +2281,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="16" t="s">
@@ -2268,7 +2289,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2282,7 +2303,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2294,7 +2315,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2306,7 +2327,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2318,7 +2339,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -2328,7 +2349,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -2338,7 +2359,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -2348,7 +2369,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="16" t="s">
@@ -2356,7 +2377,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18" t="s">
@@ -2382,7 +2403,7 @@
     </row>
     <row r="17" spans="5:7" ht="69" x14ac:dyDescent="0.25">
       <c r="E17" s="10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>63</v>
@@ -2391,18 +2412,18 @@
     </row>
     <row r="18" spans="5:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="E18" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="5:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="E19" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="5:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -2438,9 +2459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76C8911-8254-4ED9-A36C-74122DF5E80A}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2453,28 +2474,28 @@
     <col min="6" max="6" width="96.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="47" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:6" s="46" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2494,7 +2515,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
@@ -2508,11 +2529,11 @@
         <v>5</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
@@ -2526,11 +2547,11 @@
         <v>5</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
@@ -2548,7 +2569,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
@@ -2566,7 +2587,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="28" t="s">
         <v>36</v>
       </c>
@@ -2580,11 +2601,11 @@
         <v>4</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -2600,11 +2621,11 @@
         <v>4</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
       <c r="B9" s="31" t="s">
         <v>72</v>
       </c>
@@ -2618,11 +2639,11 @@
         <v>3</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="31" t="s">
         <v>74</v>
       </c>
@@ -2636,16 +2657,16 @@
         <v>4</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D11" s="32">
         <v>3</v>
@@ -2654,16 +2675,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D12" s="32">
         <v>1</v>
@@ -2672,16 +2693,16 @@
         <v>5</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="31" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D13" s="32">
         <v>4</v>
@@ -2690,16 +2711,16 @@
         <v>1</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="31" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D14" s="32">
         <v>3</v>
@@ -2708,18 +2729,18 @@
         <v>4</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>81</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D15" s="40">
         <v>3</v>
@@ -2728,16 +2749,16 @@
         <v>2</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="39" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D16" s="40">
         <v>3</v>
@@ -2750,12 +2771,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>121</v>
       </c>
       <c r="D17" s="40">
         <v>5</v>
@@ -2764,16 +2785,16 @@
         <v>1</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="39" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D18" s="40">
         <v>3</v>
@@ -2782,27 +2803,31 @@
         <v>5</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
       <c r="B19" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="39"/>
+        <v>104</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>116</v>
+      </c>
       <c r="D19" s="40">
         <v>3</v>
       </c>
       <c r="E19" s="40">
         <v>2</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="39" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="39" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="40">
@@ -2811,12 +2836,12 @@
       <c r="E20" s="40">
         <v>2</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="39" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="40">
@@ -2825,12 +2850,12 @@
       <c r="E21" s="40">
         <v>5</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="39" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="40">
@@ -2839,12 +2864,12 @@
       <c r="E22" s="40">
         <v>3</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="39" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="40">
@@ -2853,12 +2878,12 @@
       <c r="E23" s="40">
         <v>4</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="39" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="40">
@@ -2867,12 +2892,12 @@
       <c r="E24" s="40">
         <v>3</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="39" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="40">
@@ -2881,7 +2906,7 @@
       <c r="E25" s="40">
         <v>1</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Design Pattern Start.xlsx
+++ b/Design Pattern Start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\dotnet\GoF_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ED7CF3-F7A4-4F6E-9EA1-BF36628996F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8C0B7-B839-4367-B19D-053552B674C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>创建型模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1256,6 +1256,16 @@
       <t>(Polymorphic Factory)
 工厂方法的重载</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又叫标记(Token)模式
+实际开发中，可用链表或堆栈来处理有分支的对象状态改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在不破坏封装的前提下，捕获一个对象的内部状态，并在该对象之外保存这个状态，这样就可在以后将对象恢复到原先保存的状态
+Without violatingencapsulation, capture and externalize an object's internal state so that the object can be restored to this state later.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2460,8 +2470,8 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2824,19 +2834,23 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="60"/>
       <c r="B20" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="39" t="s">
+        <v>131</v>
+      </c>
       <c r="D20" s="40">
         <v>2</v>
       </c>
       <c r="E20" s="40">
         <v>2</v>
       </c>
-      <c r="F20" s="39"/>
+      <c r="F20" s="39" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="60"/>

--- a/Design Pattern Start.xlsx
+++ b/Design Pattern Start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\dotnet\GoF_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8C0B7-B839-4367-B19D-053552B674C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B687718-5CEB-47C6-BBCE-3449AC650C17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
   <si>
     <t>创建型模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1266,6 +1266,16 @@
   <si>
     <t>在不破坏封装的前提下，捕获一个对象的内部状态，并在该对象之外保存这个状态，这样就可在以后将对象恢复到原先保存的状态
 Without violatingencapsulation, capture and externalize an object's internal state so that the object can be restored to this state later.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义对象之间的一种一对多依赖关系，使得当一个对象状态发生改变时，其相关依赖对象都得到通知并被自动更新。
+Define a one-to-many dependency between objects so that when one object changes state, all its dependency are notified and updated automatically.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开闭原则
+又叫发布-订阅(Publish-Subscribe)模式/ 模型-视图(Model-View)模式/源-监听器(Source-Listener)模式/从属(Dependents)模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2471,7 +2481,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2852,19 +2862,23 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="60"/>
       <c r="B21" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="39" t="s">
+        <v>132</v>
+      </c>
       <c r="D21" s="40">
         <v>3</v>
       </c>
       <c r="E21" s="40">
         <v>5</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="39" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>

--- a/Design Pattern Start.xlsx
+++ b/Design Pattern Start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\dotnet\GoF_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B687718-5CEB-47C6-BBCE-3449AC650C17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB2D6F7-9341-4618-A565-FA8D8ABCB796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>创建型模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1276,6 +1276,15 @@
   <si>
     <t>开闭原则
 又叫发布-订阅(Publish-Subscribe)模式/ 模型-视图(Model-View)模式/源-监听器(Source-Listener)模式/从属(Dependents)模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许一个对象在其内部状态改变时改变它的行为。对象看起来似乎修改了它的类
+Allow an object to alter its behavior when its internal state changes. The object will appear to change its class.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又叫状态对象(Objects for States)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2481,7 +2490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2880,19 +2889,23 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
       <c r="B22" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="39" t="s">
+        <v>134</v>
+      </c>
       <c r="D22" s="40">
         <v>3</v>
       </c>
       <c r="E22" s="40">
         <v>3</v>
       </c>
-      <c r="F22" s="39"/>
+      <c r="F22" s="39" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>

--- a/Design Pattern Start.xlsx
+++ b/Design Pattern Start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\dotnet\GoF_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB2D6F7-9341-4618-A565-FA8D8ABCB796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C0A47A-C5BA-4472-88DF-ED8979E44DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>创建型模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1285,6 +1285,16 @@
   </si>
   <si>
     <t>又叫状态对象(Objects for States)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一系列算法，将每一个算法封装起来，并让它们可以相互替换。策略模式让算法可以独立于使用它的客户而变化。
+Define a family of algorithms, encapsulate each one, and make then interchangeable. Strategy lets the algorithm very independently from clients that use it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开闭原则，单一职责原则
+又叫政策(Policy)模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2490,7 +2500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2907,19 +2917,23 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
       <c r="B23" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="39" t="s">
+        <v>136</v>
+      </c>
       <c r="D23" s="40">
         <v>1</v>
       </c>
       <c r="E23" s="40">
         <v>4</v>
       </c>
-      <c r="F23" s="39"/>
+      <c r="F23" s="39" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>

--- a/Design Pattern Start.xlsx
+++ b/Design Pattern Start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\dotnet\GoF_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C0A47A-C5BA-4472-88DF-ED8979E44DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A1C9E-6F0B-47C9-A9C2-3A69B946FDC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
   <si>
     <t>创建型模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1295,6 +1295,16 @@
   <si>
     <t>开闭原则，单一职责原则
 又叫政策(Policy)模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一个操作中算法的框架，而将一些步骤延迟到子类中。模板方法模式使得子类不改变一个算法的结构即可重定义该算法的某些特定步骤。
+Define the skeleton of an algorithm in an operation, deferring some steps to subclasses. Template method lets subclasses redefine certain steps of an algorithm without changing the algorithm's structure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开闭原则
+模板方法，是在抽象类中定义，把基本操作方法(Primitive Operation)组合形成一个总算法或一个总行为得方法。子类不会修改它，只会修改基本方法。由于模板方法是具体方法，所以模板方法模式得抽象层是抽象类，而不是接口。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2499,7 +2509,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -2935,19 +2945,23 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
       <c r="B24" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="39" t="s">
+        <v>138</v>
+      </c>
       <c r="D24" s="40">
         <v>2</v>
       </c>
       <c r="E24" s="40">
         <v>3</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="39" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>

--- a/Design Pattern Start.xlsx
+++ b/Design Pattern Start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\dotnet\GoF_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A1C9E-6F0B-47C9-A9C2-3A69B946FDC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444590A1-3345-428F-960D-A1105C79F0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
   <si>
     <t>创建型模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1305,6 +1305,15 @@
   <si>
     <t>开闭原则
 模板方法，是在抽象类中定义，把基本操作方法(Primitive Operation)组合形成一个总算法或一个总行为得方法。子类不会修改它，只会修改基本方法。由于模板方法是具体方法，所以模板方法模式得抽象层是抽象类，而不是接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开闭原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示一个作用于某对象结构中的各个元素的操作。访问者模式让你可以在不改变个元素的类的前提下定义作用于这些元素的新操作。
+Represent an operation to be performed on the elements of an object structure. Visitor lets you define a new operation without changing the classes of the elements on which  it operates.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2509,8 +2518,8 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2963,19 +2972,23 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
       <c r="B25" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="39"/>
+      <c r="C25" s="39" t="s">
+        <v>141</v>
+      </c>
       <c r="D25" s="40">
         <v>4</v>
       </c>
       <c r="E25" s="40">
         <v>1</v>
       </c>
-      <c r="F25" s="39"/>
+      <c r="F25" s="39" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
